--- a/data-raw/metadata/microhabitat_metadata.xlsx
+++ b/data-raw/metadata/microhabitat_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/feather-mini-snorkel/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2789F354-B6A6-6642-9804-58265FD72ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23649BD3-A64B-F640-84CF-F8AA5711F334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51020" yWindow="500" windowWidth="46480" windowHeight="24980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58540" yWindow="1680" windowWidth="32820" windowHeight="25460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -23,33 +23,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={2AFFC9B9-000E-BE43-8960-0679F42A84C2}</author>
-    <author>tc={182604CC-6B67-B84A-870F-940C81AA7707}</author>
-  </authors>
-  <commentList>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{2AFFC9B9-000E-BE43-8960-0679F42A84C2}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Identified by visual observation? Any other details to add?</t>
-      </text>
-    </comment>
-    <comment ref="B29" authorId="1" shapeId="0" xr:uid="{182604CC-6B67-B84A-870F-940C81AA7707}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Based on visual observation? Any other details to add?</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -247,9 +220,6 @@
     <t>Measurement of distance to bottom where fish observation was observed</t>
   </si>
   <si>
-    <t>Geomorphic features of stream. Features include = c("glide", "glide edgewater", "pool", "riffle riffle edgewater")</t>
-  </si>
-  <si>
     <t>Unique identifier number for fish observations. This field only exists for fish observations.</t>
   </si>
   <si>
@@ -262,42 +232,13 @@
     <t>Code to identify specific one-meter transect surveyed within the survey location (see attached map)</t>
   </si>
   <si>
-    <t>Fish species. Species = c("chinook salmon", "sacramento pikeminnow", "speckled dace", 
-"steelhead trout (wild)", "steelhead trout, (clipped)", "tule perch"
-)</t>
-  </si>
-  <si>
     <t>Depth of water in meters at the centerpoint of the plot</t>
   </si>
   <si>
     <t>Measured stream velocity (ft/s) at the centerpoint of the plot</t>
   </si>
   <si>
-    <t>Percentage of  fine substrate within microhabitat plot</t>
-  </si>
-  <si>
-    <t>Percentage of  sand substrate within microhabitat plot</t>
-  </si>
-  <si>
-    <t>Percentage of small gravel substrate within microhabitat plot</t>
-  </si>
-  <si>
-    <t>Percentage of large gravel substrate within microhabitat plot</t>
-  </si>
-  <si>
-    <t>Percentage of cobble substrate within microhabitat plot</t>
-  </si>
-  <si>
-    <t>Percentage of boulder substrate within microhabitat plot</t>
-  </si>
-  <si>
     <t>Percentage of where there is no cover within microhabitat plot</t>
-  </si>
-  <si>
-    <t>Percentage of small woody cover within microhabitat plot</t>
-  </si>
-  <si>
-    <t>Percentage of large woody cover within microhabitat plot</t>
   </si>
   <si>
     <t>Percentage of submerged aquatic vegetation cover within microhabitat plot</t>
@@ -320,6 +261,37 @@
   <si>
     <t>Turbidity measured within microhabitat plot</t>
   </si>
+  <si>
+    <t>Fish species. Species = c("chinook salmon", "sacramento pikeminnow", "speckled dace", 
+"steelhead trout (wild)", "steelhead trout, (clipped)", "tule perch")</t>
+  </si>
+  <si>
+    <t>Geomorphic features of stream designated through visual observation. Features include = c("glide", "glide margin", "pool", "riffle", "riffle margin", "backwater"). A glide is characterized by its smooth, uniform flow and relatively shallow depth. A riffle is a shallow section where the flow of water is faster and more turbulent. A pool is characterized by deeper depth, slower flow, and relatively calm water. A backwater area is characterized by stagnant or slow-moving water often found in area where the main flow is obstructed. Riffle or glide margins are transitions between these geomorphic units.</t>
+  </si>
+  <si>
+    <t>Percentage of small woody cover within microhabitat plot. Small wood is generally considered to be less than 10 cm diameter at breast height.</t>
+  </si>
+  <si>
+    <t>Percentage of large woody cover within microhabitat plot. Large wood is generally considered to be more than 10 cm at breat height and consists of tree trunks or a large branch.</t>
+  </si>
+  <si>
+    <t>Percentage of  fine substrate within microhabitat plot (less than 0.05mm)</t>
+  </si>
+  <si>
+    <t>Percentage of  sand substrate within microhabitat plot (0.05-2mm)</t>
+  </si>
+  <si>
+    <t>Percentage of small gravel substrate within microhabitat plot (2-50mm)</t>
+  </si>
+  <si>
+    <t>Percentage of large gravel substrate within microhabitat plot (50-150mm)</t>
+  </si>
+  <si>
+    <t>Percentage of cobble substrate within microhabitat plot (150-300mm)</t>
+  </si>
+  <si>
+    <t>Percentage of boulder substrate within microhabitat plot (greater than 300mm)</t>
+  </si>
 </sst>
 </file>
 
@@ -329,7 +301,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -354,12 +326,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -449,9 +415,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Ashley Vizek" id="{FC137CF6-FABB-9A4F-9288-119D45E55365}" userId="d4747e6e06773ba2" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,24 +614,13 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B8" dT="2024-06-18T22:29:15.28" personId="{FC137CF6-FABB-9A4F-9288-119D45E55365}" id="{2AFFC9B9-000E-BE43-8960-0679F42A84C2}">
-    <text>Identified by visual observation? Any other details to add?</text>
-  </threadedComment>
-  <threadedComment ref="B29" dT="2024-06-18T22:30:45.15" personId="{FC137CF6-FABB-9A4F-9288-119D45E55365}" id="{182604CC-6B67-B84A-870F-940C81AA7707}">
-    <text>Based on visual observation? Any other details to add?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -746,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -784,7 +737,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -822,7 +775,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -860,7 +813,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -985,12 +938,12 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -1028,7 +981,7 @@
         <v>49</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -1124,7 +1077,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -1220,7 +1173,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -1268,7 +1221,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1316,7 +1269,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1364,7 +1317,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1412,7 +1365,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -1460,7 +1413,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -1508,7 +1461,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -1556,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
@@ -1604,7 +1557,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
@@ -1652,7 +1605,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -1700,7 +1653,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -1748,7 +1701,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
@@ -1796,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
@@ -1844,7 +1797,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
@@ -1892,7 +1845,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
@@ -1940,7 +1893,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
@@ -1983,12 +1936,12 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>13</v>
@@ -29409,7 +29362,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
